--- a/Code/Results/Cases/Case_1_139/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_139/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.974768897641717</v>
+        <v>1.016592233409688</v>
       </c>
       <c r="D2">
-        <v>1.042120126154738</v>
+        <v>1.046399119885168</v>
       </c>
       <c r="E2">
-        <v>0.9846394398918684</v>
+        <v>1.018091725468495</v>
       </c>
       <c r="F2">
-        <v>1.035063459277192</v>
+        <v>1.050215559784922</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058896351246539</v>
+        <v>1.039876406328814</v>
       </c>
       <c r="J2">
-        <v>0.997731377127271</v>
+        <v>1.021811164796023</v>
       </c>
       <c r="K2">
-        <v>1.053022265653817</v>
+        <v>1.049164665093498</v>
       </c>
       <c r="L2">
-        <v>0.9963170024504744</v>
+        <v>1.020938970791996</v>
       </c>
       <c r="M2">
-        <v>1.046054996780845</v>
+        <v>1.052970455550394</v>
       </c>
       <c r="N2">
-        <v>0.9991482701241802</v>
+        <v>1.023262253853412</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9799932439636359</v>
+        <v>1.017684158783479</v>
       </c>
       <c r="D3">
-        <v>1.045324130644447</v>
+        <v>1.047013892584638</v>
       </c>
       <c r="E3">
-        <v>0.9888334563530495</v>
+        <v>1.019021475234721</v>
       </c>
       <c r="F3">
-        <v>1.039163175043659</v>
+        <v>1.051045752225476</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060145425582711</v>
+        <v>1.040019172672328</v>
       </c>
       <c r="J3">
-        <v>1.001044581256225</v>
+        <v>1.022537859145252</v>
       </c>
       <c r="K3">
-        <v>1.055408153450146</v>
+        <v>1.049591584220517</v>
       </c>
       <c r="L3">
-        <v>0.9996112375932373</v>
+        <v>1.021674114338427</v>
       </c>
       <c r="M3">
-        <v>1.0493183269704</v>
+        <v>1.053613003963875</v>
       </c>
       <c r="N3">
-        <v>1.002466179383027</v>
+        <v>1.02398998019197</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9832964694310454</v>
+        <v>1.018390804813626</v>
       </c>
       <c r="D4">
-        <v>1.047342713836431</v>
+        <v>1.047409894452724</v>
       </c>
       <c r="E4">
-        <v>0.9914921517409626</v>
+        <v>1.019623551184558</v>
       </c>
       <c r="F4">
-        <v>1.041749639407347</v>
+        <v>1.051581289682239</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060916230254833</v>
+        <v>1.040108996520666</v>
       </c>
       <c r="J4">
-        <v>1.003137324216551</v>
+        <v>1.023007667958167</v>
       </c>
       <c r="K4">
-        <v>1.056901454399816</v>
+        <v>1.049865343060104</v>
       </c>
       <c r="L4">
-        <v>1.001694355276439</v>
+        <v>1.022149648130539</v>
       </c>
       <c r="M4">
-        <v>1.051369000178492</v>
+        <v>1.054026479153831</v>
       </c>
       <c r="N4">
-        <v>1.004561894278398</v>
+        <v>1.024460456187288</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9846674117271205</v>
+        <v>1.018687902508343</v>
       </c>
       <c r="D5">
-        <v>1.048178575409649</v>
+        <v>1.047575941350322</v>
       </c>
       <c r="E5">
-        <v>0.9925971918604131</v>
+        <v>1.019876775035381</v>
       </c>
       <c r="F5">
-        <v>1.042821561052264</v>
+        <v>1.051806032084024</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061231477304906</v>
+        <v>1.040146145551195</v>
       </c>
       <c r="J5">
-        <v>1.0040053232012</v>
+        <v>1.023205076988033</v>
       </c>
       <c r="K5">
-        <v>1.057517411558732</v>
+        <v>1.049979834290862</v>
       </c>
       <c r="L5">
-        <v>1.002558924736113</v>
+        <v>1.022349525603146</v>
       </c>
       <c r="M5">
-        <v>1.052216892144011</v>
+        <v>1.054199752474686</v>
       </c>
       <c r="N5">
-        <v>1.005431125921166</v>
+        <v>1.024658145560619</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9848965804962195</v>
+        <v>1.018737787920443</v>
       </c>
       <c r="D6">
-        <v>1.048318181666333</v>
+        <v>1.047603795945507</v>
       </c>
       <c r="E6">
-        <v>0.9927820042070358</v>
+        <v>1.019919298939722</v>
       </c>
       <c r="F6">
-        <v>1.043000649341009</v>
+        <v>1.051843743953523</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061283897192584</v>
+        <v>1.040152347062297</v>
       </c>
       <c r="J6">
-        <v>1.004150385223084</v>
+        <v>1.023238217045324</v>
       </c>
       <c r="K6">
-        <v>1.057620147515194</v>
+        <v>1.049999022813523</v>
       </c>
       <c r="L6">
-        <v>1.002703446626282</v>
+        <v>1.022383083737187</v>
       </c>
       <c r="M6">
-        <v>1.052358434044621</v>
+        <v>1.054228813424589</v>
       </c>
       <c r="N6">
-        <v>1.00557639394776</v>
+        <v>1.024691332680592</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9833148567294506</v>
+        <v>1.01839477455393</v>
       </c>
       <c r="D7">
-        <v>1.047353932342354</v>
+        <v>1.047412114880756</v>
       </c>
       <c r="E7">
-        <v>0.9915069664812726</v>
+        <v>1.019626934337894</v>
       </c>
       <c r="F7">
-        <v>1.041764022518977</v>
+        <v>1.051584294265813</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060920476968713</v>
+        <v>1.040109495317633</v>
       </c>
       <c r="J7">
-        <v>1.003148968213965</v>
+        <v>1.023010306134971</v>
       </c>
       <c r="K7">
-        <v>1.056909730972812</v>
+        <v>1.049866875245561</v>
       </c>
       <c r="L7">
-        <v>1.001705951046083</v>
+        <v>1.02215231904857</v>
       </c>
       <c r="M7">
-        <v>1.051380385112558</v>
+        <v>1.054028796610451</v>
       </c>
       <c r="N7">
-        <v>1.004573554811624</v>
+        <v>1.024463098110605</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9765509665889174</v>
+        <v>1.016961234804202</v>
       </c>
       <c r="D8">
-        <v>1.043214446368846</v>
+        <v>1.046607256098681</v>
       </c>
       <c r="E8">
-        <v>0.9860685610333272</v>
+        <v>1.018405842116494</v>
       </c>
       <c r="F8">
-        <v>1.036462990072857</v>
+        <v>1.050496468239427</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05932633237917</v>
+        <v>1.039925183355141</v>
       </c>
       <c r="J8">
-        <v>0.998861953564935</v>
+        <v>1.022056839543905</v>
       </c>
       <c r="K8">
-        <v>1.053839217398864</v>
+        <v>1.049309458196892</v>
       </c>
       <c r="L8">
-        <v>0.9974406089786604</v>
+        <v>1.02118744757802</v>
       </c>
       <c r="M8">
-        <v>1.047170699990007</v>
+        <v>1.053188082226355</v>
       </c>
       <c r="N8">
-        <v>1.000280452110065</v>
+        <v>1.023508277487615</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9640033440835739</v>
+        <v>1.014435880714035</v>
       </c>
       <c r="D9">
-        <v>1.035486184783257</v>
+        <v>1.045175316195655</v>
       </c>
       <c r="E9">
-        <v>0.9760383614569218</v>
+        <v>1.016257703481427</v>
       </c>
       <c r="F9">
-        <v>1.02659230903389</v>
+        <v>1.048567005899337</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056222778780733</v>
+        <v>1.039580878138876</v>
       </c>
       <c r="J9">
-        <v>0.990894565863057</v>
+        <v>1.02037356948356</v>
       </c>
       <c r="K9">
-        <v>1.048028613416567</v>
+        <v>1.04830825057775</v>
       </c>
       <c r="L9">
-        <v>0.9895325431185514</v>
+        <v>1.019486057370507</v>
       </c>
       <c r="M9">
-        <v>1.039268190231572</v>
+        <v>1.051689126189499</v>
       </c>
       <c r="N9">
-        <v>0.9923017498037776</v>
+        <v>1.021822616990711</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9551596100358838</v>
+        <v>1.01275276950033</v>
       </c>
       <c r="D10">
-        <v>1.030018807727419</v>
+        <v>1.044211610873531</v>
       </c>
       <c r="E10">
-        <v>0.9690134371736641</v>
+        <v>1.014828037125288</v>
       </c>
       <c r="F10">
-        <v>1.0196233459451</v>
+        <v>1.047272351621998</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053943982966298</v>
+        <v>1.039338277735567</v>
       </c>
       <c r="J10">
-        <v>0.9852726128931593</v>
+        <v>1.019249285977948</v>
       </c>
       <c r="K10">
-        <v>1.043866421163434</v>
+        <v>1.047628124622301</v>
       </c>
       <c r="L10">
-        <v>0.9839656467244285</v>
+        <v>1.018351026230238</v>
       </c>
       <c r="M10">
-        <v>1.033647108957032</v>
+        <v>1.050678153028175</v>
       </c>
       <c r="N10">
-        <v>0.9866718130158161</v>
+        <v>1.020696736873564</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.951202790029184</v>
+        <v>1.012024064724213</v>
       </c>
       <c r="D11">
-        <v>1.027570882277456</v>
+        <v>1.043792186110256</v>
       </c>
       <c r="E11">
-        <v>0.9658821092513837</v>
+        <v>1.0142095540969</v>
       </c>
       <c r="F11">
-        <v>1.016505611543264</v>
+        <v>1.046709794097</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052904586478798</v>
+        <v>1.039230143347377</v>
       </c>
       <c r="J11">
-        <v>0.9827565731788139</v>
+        <v>1.018761960631019</v>
       </c>
       <c r="K11">
-        <v>1.041990931947489</v>
+        <v>1.047330641086496</v>
       </c>
       <c r="L11">
-        <v>0.981477455148493</v>
+        <v>1.01785936387489</v>
       </c>
       <c r="M11">
-        <v>1.031122827537766</v>
+        <v>1.050237643508854</v>
       </c>
       <c r="N11">
-        <v>0.9841522002364822</v>
+        <v>1.020208719468745</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9497126053467656</v>
+        <v>1.011753404588872</v>
       </c>
       <c r="D12">
-        <v>1.02664898609011</v>
+        <v>1.043636074284094</v>
       </c>
       <c r="E12">
-        <v>0.9647046842230748</v>
+        <v>1.013979908022441</v>
       </c>
       <c r="F12">
-        <v>1.015331764865699</v>
+        <v>1.046500541790176</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052510325957499</v>
+        <v>1.039189514618835</v>
       </c>
       <c r="J12">
-        <v>0.9818089749734021</v>
+        <v>1.018580870657714</v>
       </c>
       <c r="K12">
-        <v>1.041282843366345</v>
+        <v>1.04721969557657</v>
       </c>
       <c r="L12">
-        <v>0.9805408346551453</v>
+        <v>1.017676710611242</v>
       </c>
       <c r="M12">
-        <v>1.030171011432265</v>
+        <v>1.050073606841875</v>
       </c>
       <c r="N12">
-        <v>0.9832032563329278</v>
+        <v>1.020027372326906</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9500332023807957</v>
+        <v>1.01181146151904</v>
       </c>
       <c r="D13">
-        <v>1.026847316349957</v>
+        <v>1.043669575198045</v>
       </c>
       <c r="E13">
-        <v>0.9649579081642943</v>
+        <v>1.014029163988489</v>
       </c>
       <c r="F13">
-        <v>1.015584285583478</v>
+        <v>1.046545440371238</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052595271022285</v>
+        <v>1.039198250546642</v>
       </c>
       <c r="J13">
-        <v>0.9820128404294143</v>
+        <v>1.018619718495444</v>
       </c>
       <c r="K13">
-        <v>1.041435256374852</v>
+        <v>1.047243513963374</v>
       </c>
       <c r="L13">
-        <v>0.9807423161394589</v>
+        <v>1.017715891621802</v>
       </c>
       <c r="M13">
-        <v>1.030375831579469</v>
+        <v>1.050108811874698</v>
       </c>
       <c r="N13">
-        <v>0.9834074113012713</v>
+        <v>1.020066275333023</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9510800359138614</v>
+        <v>1.012001691606943</v>
       </c>
       <c r="D14">
-        <v>1.027494938864751</v>
+        <v>1.043779288350935</v>
       </c>
       <c r="E14">
-        <v>0.9657850801228476</v>
+        <v>1.014190569724399</v>
       </c>
       <c r="F14">
-        <v>1.016408907415899</v>
+        <v>1.046692503211909</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052872165337677</v>
+        <v>1.039226794399565</v>
       </c>
       <c r="J14">
-        <v>0.9826785147987035</v>
+        <v>1.018746993220683</v>
       </c>
       <c r="K14">
-        <v>1.041932637368959</v>
+        <v>1.047321479403623</v>
       </c>
       <c r="L14">
-        <v>0.981400291069478</v>
+        <v>1.017844266269651</v>
       </c>
       <c r="M14">
-        <v>1.031044443240274</v>
+        <v>1.050224092578852</v>
       </c>
       <c r="N14">
-        <v>0.9840740310045186</v>
+        <v>1.02019373080297</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9517222745028551</v>
+        <v>1.012118900376668</v>
       </c>
       <c r="D15">
-        <v>1.027892270616955</v>
+        <v>1.043846844055812</v>
       </c>
       <c r="E15">
-        <v>0.9662928046755195</v>
+        <v>1.014290028533039</v>
       </c>
       <c r="F15">
-        <v>1.01691486991856</v>
+        <v>1.046783074652233</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053041676373403</v>
+        <v>1.039244319911912</v>
       </c>
       <c r="J15">
-        <v>0.9830869085994978</v>
+        <v>1.018825401354808</v>
       </c>
       <c r="K15">
-        <v>1.042237559270624</v>
+        <v>1.04736945731331</v>
       </c>
       <c r="L15">
-        <v>0.9818040259545849</v>
+        <v>1.017923358421051</v>
       </c>
       <c r="M15">
-        <v>1.031454497961231</v>
+        <v>1.050295066301636</v>
       </c>
       <c r="N15">
-        <v>0.9844830047713535</v>
+        <v>1.020272250285639</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9554194179386098</v>
+        <v>1.012801133139458</v>
       </c>
       <c r="D16">
-        <v>1.030179527673556</v>
+        <v>1.044239401908507</v>
       </c>
       <c r="E16">
-        <v>0.9692192953987017</v>
+        <v>1.014869095868538</v>
       </c>
       <c r="F16">
-        <v>1.019828088405614</v>
+        <v>1.047309645479314</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054011832138743</v>
+        <v>1.039345389305304</v>
       </c>
       <c r="J16">
-        <v>0.9854378099077521</v>
+        <v>1.019281617551302</v>
       </c>
       <c r="K16">
-        <v>1.043989310984736</v>
+        <v>1.047647804874221</v>
       </c>
       <c r="L16">
-        <v>0.9841290826152695</v>
+        <v>1.018383652317206</v>
       </c>
       <c r="M16">
-        <v>1.03381268279985</v>
+        <v>1.050707330357749</v>
       </c>
       <c r="N16">
-        <v>0.9868372446291178</v>
+        <v>1.02072911436146</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.957703539385874</v>
+        <v>1.013229104206445</v>
       </c>
       <c r="D17">
-        <v>1.031592344689864</v>
+        <v>1.044485073038111</v>
       </c>
       <c r="E17">
-        <v>0.9710304580012266</v>
+        <v>1.015232482729614</v>
       </c>
       <c r="F17">
-        <v>1.021628162783907</v>
+        <v>1.047639424873533</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054606101503379</v>
+        <v>1.039407961720031</v>
       </c>
       <c r="J17">
-        <v>0.9868900823708001</v>
+        <v>1.0195676551756</v>
       </c>
       <c r="K17">
-        <v>1.045068227848574</v>
+        <v>1.047821606983239</v>
       </c>
       <c r="L17">
-        <v>0.9855662377966902</v>
+        <v>1.018672332639854</v>
       </c>
       <c r="M17">
-        <v>1.035267309212055</v>
+        <v>1.050965197173338</v>
       </c>
       <c r="N17">
-        <v>0.9882915794856412</v>
+        <v>1.021015558191994</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9590236278564587</v>
+        <v>1.013478741561827</v>
       </c>
       <c r="D18">
-        <v>1.03240868634364</v>
+        <v>1.04462816283169</v>
       </c>
       <c r="E18">
-        <v>0.9720783062434483</v>
+        <v>1.015444495312845</v>
       </c>
       <c r="F18">
-        <v>1.022668507665397</v>
+        <v>1.047831590040868</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054947666924131</v>
+        <v>1.039444161255199</v>
       </c>
       <c r="J18">
-        <v>0.9877293400341224</v>
+        <v>1.019734447537323</v>
       </c>
       <c r="K18">
-        <v>1.045690507826558</v>
+        <v>1.047922694751575</v>
       </c>
       <c r="L18">
-        <v>0.9863970622586907</v>
+        <v>1.018840697003303</v>
       </c>
       <c r="M18">
-        <v>1.036107098122337</v>
+        <v>1.051115340944436</v>
       </c>
       <c r="N18">
-        <v>0.9891320289911096</v>
+        <v>1.021182587418002</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9594717121098361</v>
+        <v>1.013563863011393</v>
       </c>
       <c r="D19">
-        <v>1.03268574199326</v>
+        <v>1.044676917753278</v>
       </c>
       <c r="E19">
-        <v>0.9724341665341178</v>
+        <v>1.015516795479357</v>
       </c>
       <c r="F19">
-        <v>1.023021630194139</v>
+        <v>1.047897081191961</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055063281198397</v>
+        <v>1.039456453803535</v>
       </c>
       <c r="J19">
-        <v>0.9880141992865213</v>
+        <v>1.019791311189561</v>
       </c>
       <c r="K19">
-        <v>1.045901509122984</v>
+        <v>1.047957114161657</v>
       </c>
       <c r="L19">
-        <v>0.9866791103120506</v>
+        <v>1.018898101848859</v>
       </c>
       <c r="M19">
-        <v>1.03639199179101</v>
+        <v>1.051166490995493</v>
       </c>
       <c r="N19">
-        <v>0.9894172927763211</v>
+        <v>1.021239531823149</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9574597458136073</v>
+        <v>1.013183186028239</v>
       </c>
       <c r="D20">
-        <v>1.03144156612113</v>
+        <v>1.044458736147232</v>
       </c>
       <c r="E20">
-        <v>0.97083703009042</v>
+        <v>1.015193489050353</v>
       </c>
       <c r="F20">
-        <v>1.021436030799921</v>
+        <v>1.047604062262083</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054542867482645</v>
+        <v>1.039401279097841</v>
       </c>
       <c r="J20">
-        <v>0.9867350822491109</v>
+        <v>1.019536971066987</v>
       </c>
       <c r="K20">
-        <v>1.044953200951847</v>
+        <v>1.047802989446251</v>
       </c>
       <c r="L20">
-        <v>0.9854128196329689</v>
+        <v>1.018641361833183</v>
       </c>
       <c r="M20">
-        <v>1.035112142653782</v>
+        <v>1.050937557963131</v>
       </c>
       <c r="N20">
-        <v>0.9881363592460005</v>
+        <v>1.020984830508428</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9507723449557269</v>
+        <v>1.011945673227555</v>
       </c>
       <c r="D21">
-        <v>1.027304583228545</v>
+        <v>1.043746989347804</v>
       </c>
       <c r="E21">
-        <v>0.9655419009531744</v>
+        <v>1.014143037381385</v>
       </c>
       <c r="F21">
-        <v>1.016166518697377</v>
+        <v>1.046649204956991</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05279085501507</v>
+        <v>1.039218401714336</v>
       </c>
       <c r="J21">
-        <v>0.982482856341816</v>
+        <v>1.01870951607481</v>
       </c>
       <c r="K21">
-        <v>1.041786490849785</v>
+        <v>1.047298532848794</v>
       </c>
       <c r="L21">
-        <v>0.9812068821443676</v>
+        <v>1.017806463907526</v>
       </c>
       <c r="M21">
-        <v>1.030847950558295</v>
+        <v>1.0501901566406</v>
       </c>
       <c r="N21">
-        <v>0.9838780946901803</v>
+        <v>1.02015620043525</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9464486881402683</v>
+        <v>1.011167676165248</v>
       </c>
       <c r="D22">
-        <v>1.024630145160369</v>
+        <v>1.043297642315653</v>
       </c>
       <c r="E22">
-        <v>0.9621293641050067</v>
+        <v>1.013483074704045</v>
       </c>
       <c r="F22">
-        <v>1.012761653200622</v>
+        <v>1.046047151564378</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051641804795722</v>
+        <v>1.039100742273849</v>
       </c>
       <c r="J22">
-        <v>0.979733508721204</v>
+        <v>1.018188824614912</v>
       </c>
       <c r="K22">
-        <v>1.039728971134311</v>
+        <v>1.046978776183284</v>
       </c>
       <c r="L22">
-        <v>0.9784903221047597</v>
+        <v>1.017281368607567</v>
       </c>
       <c r="M22">
-        <v>1.028084468721899</v>
+        <v>1.049717853862314</v>
       </c>
       <c r="N22">
-        <v>0.9811248426805924</v>
+        <v>1.019634769533756</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9487524876896513</v>
+        <v>1.011580100152948</v>
       </c>
       <c r="D23">
-        <v>1.026055056388713</v>
+        <v>1.043536023831144</v>
       </c>
       <c r="E23">
-        <v>0.9639466168749888</v>
+        <v>1.013832886160887</v>
       </c>
       <c r="F23">
-        <v>1.014575592032384</v>
+        <v>1.046366471752866</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052255535524626</v>
+        <v>1.039163369220234</v>
       </c>
       <c r="J23">
-        <v>0.9811984447152291</v>
+        <v>1.018464894512314</v>
       </c>
       <c r="K23">
-        <v>1.04082616123714</v>
+        <v>1.047148529753238</v>
       </c>
       <c r="L23">
-        <v>0.9799375162002482</v>
+        <v>1.017559746893781</v>
       </c>
       <c r="M23">
-        <v>1.029557473537289</v>
+        <v>1.0499684557662</v>
       </c>
       <c r="N23">
-        <v>0.9825918590517594</v>
+        <v>1.019911231482078</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9575699432435246</v>
+        <v>1.013203934448087</v>
       </c>
       <c r="D24">
-        <v>1.031509720317421</v>
+        <v>1.044470637291208</v>
       </c>
       <c r="E24">
-        <v>0.9709244582647107</v>
+        <v>1.015211108444935</v>
       </c>
       <c r="F24">
-        <v>1.021522876611133</v>
+        <v>1.047620041689781</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054571455837497</v>
+        <v>1.03940429960763</v>
       </c>
       <c r="J24">
-        <v>0.9868051442684594</v>
+        <v>1.019550836044723</v>
       </c>
       <c r="K24">
-        <v>1.045005198359701</v>
+        <v>1.047811402799935</v>
       </c>
       <c r="L24">
-        <v>0.9854821656479048</v>
+        <v>1.018655356263027</v>
       </c>
       <c r="M24">
-        <v>1.035182282490428</v>
+        <v>1.050950047753101</v>
       </c>
       <c r="N24">
-        <v>0.9882065207614528</v>
+        <v>1.020998715176022</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9673272025640531</v>
+        <v>1.015088662302505</v>
       </c>
       <c r="D25">
-        <v>1.037537862652134</v>
+        <v>1.045547115545593</v>
       </c>
       <c r="E25">
-        <v>0.978688077531484</v>
+        <v>1.016812622475474</v>
       </c>
       <c r="F25">
-        <v>1.029210072456323</v>
+        <v>1.049067296981843</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057061175435305</v>
+        <v>1.039672196386737</v>
       </c>
       <c r="J25">
-        <v>0.9930064853000939</v>
+        <v>1.020809106430874</v>
       </c>
       <c r="K25">
-        <v>1.049580115791572</v>
+        <v>1.048569324225228</v>
       </c>
       <c r="L25">
-        <v>0.9916264957361497</v>
+        <v>1.019926044209377</v>
       </c>
       <c r="M25">
-        <v>1.041371251690007</v>
+        <v>1.052078706468229</v>
       </c>
       <c r="N25">
-        <v>0.9944166684086559</v>
+        <v>1.022258772450447</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_139/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_139/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016592233409688</v>
+        <v>0.9747688976417176</v>
       </c>
       <c r="D2">
-        <v>1.046399119885168</v>
+        <v>1.042120126154739</v>
       </c>
       <c r="E2">
-        <v>1.018091725468495</v>
+        <v>0.9846394398918688</v>
       </c>
       <c r="F2">
-        <v>1.050215559784922</v>
+        <v>1.035063459277193</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039876406328814</v>
+        <v>1.058896351246539</v>
       </c>
       <c r="J2">
-        <v>1.021811164796023</v>
+        <v>0.9977313771272713</v>
       </c>
       <c r="K2">
-        <v>1.049164665093498</v>
+        <v>1.053022265653817</v>
       </c>
       <c r="L2">
-        <v>1.020938970791996</v>
+        <v>0.9963170024504746</v>
       </c>
       <c r="M2">
-        <v>1.052970455550394</v>
+        <v>1.046054996780846</v>
       </c>
       <c r="N2">
-        <v>1.023262253853412</v>
+        <v>0.9991482701241806</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017684158783479</v>
+        <v>0.9799932439636356</v>
       </c>
       <c r="D3">
-        <v>1.047013892584638</v>
+        <v>1.045324130644447</v>
       </c>
       <c r="E3">
-        <v>1.019021475234721</v>
+        <v>0.9888334563530493</v>
       </c>
       <c r="F3">
-        <v>1.051045752225476</v>
+        <v>1.039163175043659</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040019172672328</v>
+        <v>1.060145425582711</v>
       </c>
       <c r="J3">
-        <v>1.022537859145252</v>
+        <v>1.001044581256225</v>
       </c>
       <c r="K3">
-        <v>1.049591584220517</v>
+        <v>1.055408153450146</v>
       </c>
       <c r="L3">
-        <v>1.021674114338427</v>
+        <v>0.999611237593237</v>
       </c>
       <c r="M3">
-        <v>1.053613003963875</v>
+        <v>1.0493183269704</v>
       </c>
       <c r="N3">
-        <v>1.02398998019197</v>
+        <v>1.002466179383027</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018390804813626</v>
+        <v>0.9832964694310456</v>
       </c>
       <c r="D4">
-        <v>1.047409894452724</v>
+        <v>1.047342713836431</v>
       </c>
       <c r="E4">
-        <v>1.019623551184558</v>
+        <v>0.9914921517409627</v>
       </c>
       <c r="F4">
-        <v>1.051581289682239</v>
+        <v>1.041749639407347</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040108996520666</v>
+        <v>1.060916230254832</v>
       </c>
       <c r="J4">
-        <v>1.023007667958167</v>
+        <v>1.003137324216551</v>
       </c>
       <c r="K4">
-        <v>1.049865343060104</v>
+        <v>1.056901454399816</v>
       </c>
       <c r="L4">
-        <v>1.022149648130539</v>
+        <v>1.001694355276439</v>
       </c>
       <c r="M4">
-        <v>1.054026479153831</v>
+        <v>1.051369000178492</v>
       </c>
       <c r="N4">
-        <v>1.024460456187288</v>
+        <v>1.004561894278398</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018687902508343</v>
+        <v>0.9846674117271205</v>
       </c>
       <c r="D5">
-        <v>1.047575941350322</v>
+        <v>1.048178575409649</v>
       </c>
       <c r="E5">
-        <v>1.019876775035381</v>
+        <v>0.9925971918604128</v>
       </c>
       <c r="F5">
-        <v>1.051806032084024</v>
+        <v>1.042821561052264</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040146145551195</v>
+        <v>1.061231477304906</v>
       </c>
       <c r="J5">
-        <v>1.023205076988033</v>
+        <v>1.0040053232012</v>
       </c>
       <c r="K5">
-        <v>1.049979834290862</v>
+        <v>1.057517411558732</v>
       </c>
       <c r="L5">
-        <v>1.022349525603146</v>
+        <v>1.002558924736113</v>
       </c>
       <c r="M5">
-        <v>1.054199752474686</v>
+        <v>1.052216892144011</v>
       </c>
       <c r="N5">
-        <v>1.024658145560619</v>
+        <v>1.005431125921165</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018737787920443</v>
+        <v>0.9848965804962192</v>
       </c>
       <c r="D6">
-        <v>1.047603795945507</v>
+        <v>1.048318181666334</v>
       </c>
       <c r="E6">
-        <v>1.019919298939722</v>
+        <v>0.9927820042070354</v>
       </c>
       <c r="F6">
-        <v>1.051843743953523</v>
+        <v>1.04300064934101</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040152347062297</v>
+        <v>1.061283897192584</v>
       </c>
       <c r="J6">
-        <v>1.023238217045324</v>
+        <v>1.004150385223084</v>
       </c>
       <c r="K6">
-        <v>1.049999022813523</v>
+        <v>1.057620147515195</v>
       </c>
       <c r="L6">
-        <v>1.022383083737187</v>
+        <v>1.002703446626281</v>
       </c>
       <c r="M6">
-        <v>1.054228813424589</v>
+        <v>1.052358434044621</v>
       </c>
       <c r="N6">
-        <v>1.024691332680592</v>
+        <v>1.00557639394776</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01839477455393</v>
+        <v>0.9833148567294507</v>
       </c>
       <c r="D7">
-        <v>1.047412114880756</v>
+        <v>1.047353932342354</v>
       </c>
       <c r="E7">
-        <v>1.019626934337894</v>
+        <v>0.9915069664812729</v>
       </c>
       <c r="F7">
-        <v>1.051584294265813</v>
+        <v>1.041764022518977</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040109495317633</v>
+        <v>1.060920476968713</v>
       </c>
       <c r="J7">
-        <v>1.023010306134971</v>
+        <v>1.003148968213965</v>
       </c>
       <c r="K7">
-        <v>1.049866875245561</v>
+        <v>1.056909730972812</v>
       </c>
       <c r="L7">
-        <v>1.02215231904857</v>
+        <v>1.001705951046083</v>
       </c>
       <c r="M7">
-        <v>1.054028796610451</v>
+        <v>1.051380385112558</v>
       </c>
       <c r="N7">
-        <v>1.024463098110605</v>
+        <v>1.004573554811624</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016961234804202</v>
+        <v>0.9765509665889179</v>
       </c>
       <c r="D8">
-        <v>1.046607256098681</v>
+        <v>1.043214446368846</v>
       </c>
       <c r="E8">
-        <v>1.018405842116494</v>
+        <v>0.9860685610333275</v>
       </c>
       <c r="F8">
-        <v>1.050496468239427</v>
+        <v>1.036462990072857</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039925183355141</v>
+        <v>1.05932633237917</v>
       </c>
       <c r="J8">
-        <v>1.022056839543905</v>
+        <v>0.9988619535649355</v>
       </c>
       <c r="K8">
-        <v>1.049309458196892</v>
+        <v>1.053839217398864</v>
       </c>
       <c r="L8">
-        <v>1.02118744757802</v>
+        <v>0.9974406089786606</v>
       </c>
       <c r="M8">
-        <v>1.053188082226355</v>
+        <v>1.047170699990007</v>
       </c>
       <c r="N8">
-        <v>1.023508277487615</v>
+        <v>1.000280452110065</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014435880714035</v>
+        <v>0.9640033440835744</v>
       </c>
       <c r="D9">
-        <v>1.045175316195655</v>
+        <v>1.035486184783257</v>
       </c>
       <c r="E9">
-        <v>1.016257703481427</v>
+        <v>0.976038361456922</v>
       </c>
       <c r="F9">
-        <v>1.048567005899337</v>
+        <v>1.02659230903389</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039580878138876</v>
+        <v>1.056222778780732</v>
       </c>
       <c r="J9">
-        <v>1.02037356948356</v>
+        <v>0.9908945658630577</v>
       </c>
       <c r="K9">
-        <v>1.04830825057775</v>
+        <v>1.048028613416566</v>
       </c>
       <c r="L9">
-        <v>1.019486057370507</v>
+        <v>0.9895325431185519</v>
       </c>
       <c r="M9">
-        <v>1.051689126189499</v>
+        <v>1.039268190231572</v>
       </c>
       <c r="N9">
-        <v>1.021822616990711</v>
+        <v>0.9923017498037782</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01275276950033</v>
+        <v>0.9551596100358832</v>
       </c>
       <c r="D10">
-        <v>1.044211610873531</v>
+        <v>1.03001880772742</v>
       </c>
       <c r="E10">
-        <v>1.014828037125288</v>
+        <v>0.9690134371736631</v>
       </c>
       <c r="F10">
-        <v>1.047272351621998</v>
+        <v>1.019623345945099</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039338277735567</v>
+        <v>1.053943982966299</v>
       </c>
       <c r="J10">
-        <v>1.019249285977948</v>
+        <v>0.9852726128931587</v>
       </c>
       <c r="K10">
-        <v>1.047628124622301</v>
+        <v>1.043866421163435</v>
       </c>
       <c r="L10">
-        <v>1.018351026230238</v>
+        <v>0.9839656467244277</v>
       </c>
       <c r="M10">
-        <v>1.050678153028175</v>
+        <v>1.033647108957032</v>
       </c>
       <c r="N10">
-        <v>1.020696736873564</v>
+        <v>0.9866718130158152</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012024064724213</v>
+        <v>0.9512027900291845</v>
       </c>
       <c r="D11">
-        <v>1.043792186110256</v>
+        <v>1.027570882277456</v>
       </c>
       <c r="E11">
-        <v>1.0142095540969</v>
+        <v>0.9658821092513844</v>
       </c>
       <c r="F11">
-        <v>1.046709794097</v>
+        <v>1.016505611543265</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039230143347377</v>
+        <v>1.052904586478798</v>
       </c>
       <c r="J11">
-        <v>1.018761960631019</v>
+        <v>0.9827565731788144</v>
       </c>
       <c r="K11">
-        <v>1.047330641086496</v>
+        <v>1.04199093194749</v>
       </c>
       <c r="L11">
-        <v>1.01785936387489</v>
+        <v>0.9814774551484935</v>
       </c>
       <c r="M11">
-        <v>1.050237643508854</v>
+        <v>1.031122827537767</v>
       </c>
       <c r="N11">
-        <v>1.020208719468745</v>
+        <v>0.9841522002364826</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011753404588872</v>
+        <v>0.9497126053467654</v>
       </c>
       <c r="D12">
-        <v>1.043636074284094</v>
+        <v>1.02664898609011</v>
       </c>
       <c r="E12">
-        <v>1.013979908022441</v>
+        <v>0.9647046842230743</v>
       </c>
       <c r="F12">
-        <v>1.046500541790176</v>
+        <v>1.015331764865699</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039189514618835</v>
+        <v>1.052510325957499</v>
       </c>
       <c r="J12">
-        <v>1.018580870657714</v>
+        <v>0.9818089749734021</v>
       </c>
       <c r="K12">
-        <v>1.04721969557657</v>
+        <v>1.041282843366345</v>
       </c>
       <c r="L12">
-        <v>1.017676710611242</v>
+        <v>0.9805408346551451</v>
       </c>
       <c r="M12">
-        <v>1.050073606841875</v>
+        <v>1.030171011432265</v>
       </c>
       <c r="N12">
-        <v>1.020027372326906</v>
+        <v>0.9832032563329278</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01181146151904</v>
+        <v>0.9500332023807951</v>
       </c>
       <c r="D13">
-        <v>1.043669575198045</v>
+        <v>1.026847316349956</v>
       </c>
       <c r="E13">
-        <v>1.014029163988489</v>
+        <v>0.9649579081642937</v>
       </c>
       <c r="F13">
-        <v>1.046545440371238</v>
+        <v>1.015584285583477</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039198250546642</v>
+        <v>1.052595271022284</v>
       </c>
       <c r="J13">
-        <v>1.018619718495444</v>
+        <v>0.9820128404294138</v>
       </c>
       <c r="K13">
-        <v>1.047243513963374</v>
+        <v>1.041435256374851</v>
       </c>
       <c r="L13">
-        <v>1.017715891621802</v>
+        <v>0.9807423161394585</v>
       </c>
       <c r="M13">
-        <v>1.050108811874698</v>
+        <v>1.030375831579468</v>
       </c>
       <c r="N13">
-        <v>1.020066275333023</v>
+        <v>0.9834074113012707</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012001691606943</v>
+        <v>0.9510800359138617</v>
       </c>
       <c r="D14">
-        <v>1.043779288350935</v>
+        <v>1.027494938864752</v>
       </c>
       <c r="E14">
-        <v>1.014190569724399</v>
+        <v>0.965785080122848</v>
       </c>
       <c r="F14">
-        <v>1.046692503211909</v>
+        <v>1.0164089074159</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039226794399565</v>
+        <v>1.052872165337677</v>
       </c>
       <c r="J14">
-        <v>1.018746993220683</v>
+        <v>0.9826785147987038</v>
       </c>
       <c r="K14">
-        <v>1.047321479403623</v>
+        <v>1.04193263736896</v>
       </c>
       <c r="L14">
-        <v>1.017844266269651</v>
+        <v>0.9814002910694786</v>
       </c>
       <c r="M14">
-        <v>1.050224092578852</v>
+        <v>1.031044443240274</v>
       </c>
       <c r="N14">
-        <v>1.02019373080297</v>
+        <v>0.9840740310045188</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012118900376668</v>
+        <v>0.9517222745028555</v>
       </c>
       <c r="D15">
-        <v>1.043846844055812</v>
+        <v>1.027892270616956</v>
       </c>
       <c r="E15">
-        <v>1.014290028533039</v>
+        <v>0.9662928046755199</v>
       </c>
       <c r="F15">
-        <v>1.046783074652233</v>
+        <v>1.016914869918561</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039244319911912</v>
+        <v>1.053041676373403</v>
       </c>
       <c r="J15">
-        <v>1.018825401354808</v>
+        <v>0.9830869085994982</v>
       </c>
       <c r="K15">
-        <v>1.04736945731331</v>
+        <v>1.042237559270625</v>
       </c>
       <c r="L15">
-        <v>1.017923358421051</v>
+        <v>0.9818040259545853</v>
       </c>
       <c r="M15">
-        <v>1.050295066301636</v>
+        <v>1.031454497961232</v>
       </c>
       <c r="N15">
-        <v>1.020272250285639</v>
+        <v>0.9844830047713541</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012801133139458</v>
+        <v>0.9554194179386106</v>
       </c>
       <c r="D16">
-        <v>1.044239401908507</v>
+        <v>1.030179527673556</v>
       </c>
       <c r="E16">
-        <v>1.014869095868538</v>
+        <v>0.9692192953987024</v>
       </c>
       <c r="F16">
-        <v>1.047309645479314</v>
+        <v>1.019828088405615</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039345389305304</v>
+        <v>1.054011832138743</v>
       </c>
       <c r="J16">
-        <v>1.019281617551302</v>
+        <v>0.9854378099077528</v>
       </c>
       <c r="K16">
-        <v>1.047647804874221</v>
+        <v>1.043989310984736</v>
       </c>
       <c r="L16">
-        <v>1.018383652317206</v>
+        <v>0.9841290826152701</v>
       </c>
       <c r="M16">
-        <v>1.050707330357749</v>
+        <v>1.03381268279985</v>
       </c>
       <c r="N16">
-        <v>1.02072911436146</v>
+        <v>0.9868372446291184</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013229104206445</v>
+        <v>0.957703539385874</v>
       </c>
       <c r="D17">
-        <v>1.044485073038111</v>
+        <v>1.031592344689864</v>
       </c>
       <c r="E17">
-        <v>1.015232482729614</v>
+        <v>0.9710304580012264</v>
       </c>
       <c r="F17">
-        <v>1.047639424873533</v>
+        <v>1.021628162783908</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039407961720031</v>
+        <v>1.054606101503379</v>
       </c>
       <c r="J17">
-        <v>1.0195676551756</v>
+        <v>0.9868900823708</v>
       </c>
       <c r="K17">
-        <v>1.047821606983239</v>
+        <v>1.045068227848574</v>
       </c>
       <c r="L17">
-        <v>1.018672332639854</v>
+        <v>0.9855662377966899</v>
       </c>
       <c r="M17">
-        <v>1.050965197173338</v>
+        <v>1.035267309212056</v>
       </c>
       <c r="N17">
-        <v>1.021015558191994</v>
+        <v>0.9882915794856411</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013478741561827</v>
+        <v>0.9590236278564588</v>
       </c>
       <c r="D18">
-        <v>1.04462816283169</v>
+        <v>1.03240868634364</v>
       </c>
       <c r="E18">
-        <v>1.015444495312845</v>
+        <v>0.9720783062434482</v>
       </c>
       <c r="F18">
-        <v>1.047831590040868</v>
+        <v>1.022668507665397</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039444161255199</v>
+        <v>1.054947666924131</v>
       </c>
       <c r="J18">
-        <v>1.019734447537323</v>
+        <v>0.9877293400341224</v>
       </c>
       <c r="K18">
-        <v>1.047922694751575</v>
+        <v>1.045690507826559</v>
       </c>
       <c r="L18">
-        <v>1.018840697003303</v>
+        <v>0.9863970622586906</v>
       </c>
       <c r="M18">
-        <v>1.051115340944436</v>
+        <v>1.036107098122337</v>
       </c>
       <c r="N18">
-        <v>1.021182587418002</v>
+        <v>0.9891320289911099</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013563863011393</v>
+        <v>0.9594717121098361</v>
       </c>
       <c r="D19">
-        <v>1.044676917753278</v>
+        <v>1.03268574199326</v>
       </c>
       <c r="E19">
-        <v>1.015516795479357</v>
+        <v>0.9724341665341178</v>
       </c>
       <c r="F19">
-        <v>1.047897081191961</v>
+        <v>1.02302163019414</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039456453803535</v>
+        <v>1.055063281198397</v>
       </c>
       <c r="J19">
-        <v>1.019791311189561</v>
+        <v>0.9880141992865215</v>
       </c>
       <c r="K19">
-        <v>1.047957114161657</v>
+        <v>1.045901509122985</v>
       </c>
       <c r="L19">
-        <v>1.018898101848859</v>
+        <v>0.9866791103120507</v>
       </c>
       <c r="M19">
-        <v>1.051166490995493</v>
+        <v>1.036391991791012</v>
       </c>
       <c r="N19">
-        <v>1.021239531823149</v>
+        <v>0.9894172927763212</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013183186028239</v>
+        <v>0.9574597458136072</v>
       </c>
       <c r="D20">
-        <v>1.044458736147232</v>
+        <v>1.031441566121129</v>
       </c>
       <c r="E20">
-        <v>1.015193489050353</v>
+        <v>0.97083703009042</v>
       </c>
       <c r="F20">
-        <v>1.047604062262083</v>
+        <v>1.021436030799921</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039401279097841</v>
+        <v>1.054542867482645</v>
       </c>
       <c r="J20">
-        <v>1.019536971066987</v>
+        <v>0.9867350822491108</v>
       </c>
       <c r="K20">
-        <v>1.047802989446251</v>
+        <v>1.044953200951846</v>
       </c>
       <c r="L20">
-        <v>1.018641361833183</v>
+        <v>0.9854128196329688</v>
       </c>
       <c r="M20">
-        <v>1.050937557963131</v>
+        <v>1.035112142653781</v>
       </c>
       <c r="N20">
-        <v>1.020984830508428</v>
+        <v>0.9881363592460006</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011945673227555</v>
+        <v>0.9507723449557277</v>
       </c>
       <c r="D21">
-        <v>1.043746989347804</v>
+        <v>1.027304583228545</v>
       </c>
       <c r="E21">
-        <v>1.014143037381385</v>
+        <v>0.9655419009531753</v>
       </c>
       <c r="F21">
-        <v>1.046649204956991</v>
+        <v>1.016166518697378</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039218401714336</v>
+        <v>1.05279085501507</v>
       </c>
       <c r="J21">
-        <v>1.01870951607481</v>
+        <v>0.9824828563418166</v>
       </c>
       <c r="K21">
-        <v>1.047298532848794</v>
+        <v>1.041786490849785</v>
       </c>
       <c r="L21">
-        <v>1.017806463907526</v>
+        <v>0.9812068821443685</v>
       </c>
       <c r="M21">
-        <v>1.0501901566406</v>
+        <v>1.030847950558296</v>
       </c>
       <c r="N21">
-        <v>1.02015620043525</v>
+        <v>0.9838780946901808</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.011167676165248</v>
+        <v>0.9464486881402687</v>
       </c>
       <c r="D22">
-        <v>1.043297642315653</v>
+        <v>1.024630145160369</v>
       </c>
       <c r="E22">
-        <v>1.013483074704045</v>
+        <v>0.962129364105007</v>
       </c>
       <c r="F22">
-        <v>1.046047151564378</v>
+        <v>1.012761653200622</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039100742273849</v>
+        <v>1.051641804795722</v>
       </c>
       <c r="J22">
-        <v>1.018188824614912</v>
+        <v>0.9797335087212043</v>
       </c>
       <c r="K22">
-        <v>1.046978776183284</v>
+        <v>1.039728971134311</v>
       </c>
       <c r="L22">
-        <v>1.017281368607567</v>
+        <v>0.9784903221047599</v>
       </c>
       <c r="M22">
-        <v>1.049717853862314</v>
+        <v>1.028084468721899</v>
       </c>
       <c r="N22">
-        <v>1.019634769533756</v>
+        <v>0.9811248426805925</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011580100152948</v>
+        <v>0.9487524876896511</v>
       </c>
       <c r="D23">
-        <v>1.043536023831144</v>
+        <v>1.026055056388712</v>
       </c>
       <c r="E23">
-        <v>1.013832886160887</v>
+        <v>0.9639466168749886</v>
       </c>
       <c r="F23">
-        <v>1.046366471752866</v>
+        <v>1.014575592032384</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039163369220234</v>
+        <v>1.052255535524626</v>
       </c>
       <c r="J23">
-        <v>1.018464894512314</v>
+        <v>0.9811984447152289</v>
       </c>
       <c r="K23">
-        <v>1.047148529753238</v>
+        <v>1.04082616123714</v>
       </c>
       <c r="L23">
-        <v>1.017559746893781</v>
+        <v>0.9799375162002478</v>
       </c>
       <c r="M23">
-        <v>1.0499684557662</v>
+        <v>1.029557473537289</v>
       </c>
       <c r="N23">
-        <v>1.019911231482078</v>
+        <v>0.9825918590517592</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013203934448087</v>
+        <v>0.9575699432435248</v>
       </c>
       <c r="D24">
-        <v>1.044470637291208</v>
+        <v>1.031509720317421</v>
       </c>
       <c r="E24">
-        <v>1.015211108444935</v>
+        <v>0.9709244582647109</v>
       </c>
       <c r="F24">
-        <v>1.047620041689781</v>
+        <v>1.021522876611133</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03940429960763</v>
+        <v>1.054571455837497</v>
       </c>
       <c r="J24">
-        <v>1.019550836044723</v>
+        <v>0.9868051442684596</v>
       </c>
       <c r="K24">
-        <v>1.047811402799935</v>
+        <v>1.045005198359702</v>
       </c>
       <c r="L24">
-        <v>1.018655356263027</v>
+        <v>0.9854821656479049</v>
       </c>
       <c r="M24">
-        <v>1.050950047753101</v>
+        <v>1.035182282490428</v>
       </c>
       <c r="N24">
-        <v>1.020998715176022</v>
+        <v>0.9882065207614529</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015088662302505</v>
+        <v>0.967327202564053</v>
       </c>
       <c r="D25">
-        <v>1.045547115545593</v>
+        <v>1.037537862652134</v>
       </c>
       <c r="E25">
-        <v>1.016812622475474</v>
+        <v>0.9786880775314838</v>
       </c>
       <c r="F25">
-        <v>1.049067296981843</v>
+        <v>1.029210072456324</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039672196386737</v>
+        <v>1.057061175435305</v>
       </c>
       <c r="J25">
-        <v>1.020809106430874</v>
+        <v>0.9930064853000939</v>
       </c>
       <c r="K25">
-        <v>1.048569324225228</v>
+        <v>1.049580115791572</v>
       </c>
       <c r="L25">
-        <v>1.019926044209377</v>
+        <v>0.9916264957361497</v>
       </c>
       <c r="M25">
-        <v>1.052078706468229</v>
+        <v>1.041371251690007</v>
       </c>
       <c r="N25">
-        <v>1.022258772450447</v>
+        <v>0.9944166684086561</v>
       </c>
     </row>
   </sheetData>
